--- a/data/trans_orig/IP16A112_2023R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP16A112_2023R-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E57FCDAF-7C11-45F7-8B07-AD0C9E360203}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B93D5928-D51D-4E4C-A63F-D86CA7B0269B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{10962163-3367-4B5C-B76B-A39BDEAE3A75}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{6AFA83B5-6739-4EFE-8AAD-CAFD9586CFA9}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -65,12 +65,126 @@
     <t>lím sup IC</t>
   </si>
   <si>
+    <t>Menos de 2</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>75,54%</t>
+  </si>
+  <si>
+    <t>32,21%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>84,57%</t>
+  </si>
+  <si>
+    <t>45,12%</t>
+  </si>
+  <si>
+    <t>81,08%</t>
+  </si>
+  <si>
+    <t>54,29%</t>
+  </si>
+  <si>
+    <t>95,2%</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>24,46%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>67,79%</t>
+  </si>
+  <si>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>54,88%</t>
+  </si>
+  <si>
+    <t>18,92%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>45,71%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>70,49%</t>
+  </si>
+  <si>
+    <t>52,39%</t>
+  </si>
+  <si>
+    <t>84,24%</t>
+  </si>
+  <si>
+    <t>52,54%</t>
+  </si>
+  <si>
+    <t>34,3%</t>
+  </si>
+  <si>
+    <t>69,44%</t>
+  </si>
+  <si>
+    <t>61,96%</t>
+  </si>
+  <si>
+    <t>49,58%</t>
+  </si>
+  <si>
+    <t>72,53%</t>
+  </si>
+  <si>
+    <t>29,51%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>47,61%</t>
+  </si>
+  <si>
+    <t>47,46%</t>
+  </si>
+  <si>
+    <t>30,56%</t>
+  </si>
+  <si>
+    <t>65,7%</t>
+  </si>
+  <si>
+    <t>38,04%</t>
+  </si>
+  <si>
+    <t>27,47%</t>
+  </si>
+  <si>
+    <t>50,42%</t>
+  </si>
+  <si>
     <t>10/50</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
     <t>53,64%</t>
   </si>
   <si>
@@ -98,9 +212,6 @@
     <t>64,68%</t>
   </si>
   <si>
-    <t>Sí</t>
-  </si>
-  <si>
     <t>46,36%</t>
   </si>
   <si>
@@ -128,64 +239,61 @@
     <t>53,3%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>70,49%</t>
-  </si>
-  <si>
-    <t>52,39%</t>
-  </si>
-  <si>
-    <t>84,24%</t>
-  </si>
-  <si>
-    <t>52,54%</t>
-  </si>
-  <si>
-    <t>34,3%</t>
-  </si>
-  <si>
-    <t>69,44%</t>
-  </si>
-  <si>
-    <t>61,96%</t>
-  </si>
-  <si>
-    <t>49,58%</t>
-  </si>
-  <si>
-    <t>72,53%</t>
-  </si>
-  <si>
-    <t>29,51%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>47,61%</t>
-  </si>
-  <si>
-    <t>47,46%</t>
-  </si>
-  <si>
-    <t>30,56%</t>
-  </si>
-  <si>
-    <t>65,7%</t>
-  </si>
-  <si>
-    <t>38,04%</t>
-  </si>
-  <si>
-    <t>27,47%</t>
-  </si>
-  <si>
-    <t>50,42%</t>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>54,06%</t>
+  </si>
+  <si>
+    <t>42,16%</t>
+  </si>
+  <si>
+    <t>68,39%</t>
+  </si>
+  <si>
+    <t>49,32%</t>
+  </si>
+  <si>
+    <t>34,77%</t>
+  </si>
+  <si>
+    <t>70,0%</t>
+  </si>
+  <si>
+    <t>51,6%</t>
+  </si>
+  <si>
+    <t>41,47%</t>
+  </si>
+  <si>
+    <t>63,9%</t>
+  </si>
+  <si>
+    <t>45,94%</t>
+  </si>
+  <si>
+    <t>31,61%</t>
+  </si>
+  <si>
+    <t>57,84%</t>
+  </si>
+  <si>
+    <t>50,68%</t>
+  </si>
+  <si>
+    <t>30,0%</t>
+  </si>
+  <si>
+    <t>65,23%</t>
+  </si>
+  <si>
+    <t>48,4%</t>
+  </si>
+  <si>
+    <t>36,1%</t>
+  </si>
+  <si>
+    <t>58,53%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -243,114 +351,6 @@
   </si>
   <si>
     <t>57,9%</t>
-  </si>
-  <si>
-    <t>Menos de 2</t>
-  </si>
-  <si>
-    <t>75,54%</t>
-  </si>
-  <si>
-    <t>32,21%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>84,57%</t>
-  </si>
-  <si>
-    <t>45,12%</t>
-  </si>
-  <si>
-    <t>81,08%</t>
-  </si>
-  <si>
-    <t>54,29%</t>
-  </si>
-  <si>
-    <t>95,2%</t>
-  </si>
-  <si>
-    <t>24,46%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>67,79%</t>
-  </si>
-  <si>
-    <t>15,43%</t>
-  </si>
-  <si>
-    <t>54,88%</t>
-  </si>
-  <si>
-    <t>18,92%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>45,71%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>54,06%</t>
-  </si>
-  <si>
-    <t>42,16%</t>
-  </si>
-  <si>
-    <t>68,39%</t>
-  </si>
-  <si>
-    <t>49,32%</t>
-  </si>
-  <si>
-    <t>34,77%</t>
-  </si>
-  <si>
-    <t>70,0%</t>
-  </si>
-  <si>
-    <t>51,6%</t>
-  </si>
-  <si>
-    <t>41,47%</t>
-  </si>
-  <si>
-    <t>63,9%</t>
-  </si>
-  <si>
-    <t>45,94%</t>
-  </si>
-  <si>
-    <t>31,61%</t>
-  </si>
-  <si>
-    <t>57,84%</t>
-  </si>
-  <si>
-    <t>50,68%</t>
-  </si>
-  <si>
-    <t>30,0%</t>
-  </si>
-  <si>
-    <t>65,23%</t>
-  </si>
-  <si>
-    <t>48,4%</t>
-  </si>
-  <si>
-    <t>36,1%</t>
-  </si>
-  <si>
-    <t>58,53%</t>
   </si>
   <si>
     <t>56,05%</t>
@@ -796,7 +796,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8862519-224E-476F-8CF5-760330BCB3CE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3D8B7E2-92C9-4D4E-B047-D7941BDEB74B}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -914,10 +914,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>48</v>
+        <v>5</v>
       </c>
       <c r="D4" s="7">
-        <v>32636</v>
+        <v>3148</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -929,10 +929,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="I4" s="7">
-        <v>23349</v>
+        <v>5596</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -941,73 +941,73 @@
         <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M4" s="7">
         <v>16</v>
       </c>
-      <c r="M4" s="7">
-        <v>82</v>
-      </c>
       <c r="N4" s="7">
-        <v>55985</v>
+        <v>8744</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>18</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="7">
+        <v>2</v>
+      </c>
+      <c r="D5" s="7">
+        <v>1019</v>
+      </c>
+      <c r="E5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="7">
-        <v>43</v>
-      </c>
-      <c r="D5" s="7">
-        <v>28209</v>
-      </c>
-      <c r="E5" s="7" t="s">
+      <c r="F5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="H5" s="7">
+        <v>1</v>
+      </c>
+      <c r="I5" s="7">
+        <v>1021</v>
+      </c>
+      <c r="J5" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="7">
-        <v>29</v>
-      </c>
-      <c r="I5" s="7">
-        <v>17403</v>
-      </c>
-      <c r="J5" s="7" t="s">
+      <c r="K5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="M5" s="7">
+        <v>3</v>
+      </c>
+      <c r="N5" s="7">
+        <v>2040</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="L5" s="7" t="s">
+      <c r="P5" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="M5" s="7">
-        <v>72</v>
-      </c>
-      <c r="N5" s="7">
-        <v>45613</v>
-      </c>
-      <c r="O5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>27</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1016,54 +1016,54 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>91</v>
+        <v>7</v>
       </c>
       <c r="D6" s="7">
-        <v>60845</v>
+        <v>4167</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H6" s="7">
-        <v>63</v>
+        <v>12</v>
       </c>
       <c r="I6" s="7">
-        <v>40752</v>
+        <v>6617</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M6" s="7">
-        <v>154</v>
+        <v>19</v>
       </c>
       <c r="N6" s="7">
-        <v>101598</v>
+        <v>10784</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -1075,13 +1075,13 @@
         <v>15589</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>34</v>
       </c>
       <c r="H7" s="7">
         <v>17</v>
@@ -1090,13 +1090,13 @@
         <v>10520</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>37</v>
       </c>
       <c r="M7" s="7">
         <v>39</v>
@@ -1105,19 +1105,19 @@
         <v>26110</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" s="7">
         <v>11</v>
@@ -1126,13 +1126,13 @@
         <v>6527</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>17</v>
@@ -1141,13 +1141,13 @@
         <v>9504</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>28</v>
@@ -1156,13 +1156,13 @@
         <v>16030</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1177,13 +1177,13 @@
         <v>22116</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H9" s="7">
         <v>34</v>
@@ -1192,13 +1192,13 @@
         <v>20024</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M9" s="7">
         <v>67</v>
@@ -1207,117 +1207,117 @@
         <v>42140</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="D10" s="7">
-        <v>16696</v>
+        <v>32636</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="H10" s="7">
+        <v>34</v>
+      </c>
+      <c r="I10" s="7">
+        <v>23349</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="H10" s="7">
-        <v>25</v>
-      </c>
-      <c r="I10" s="7">
-        <v>16591</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>82</v>
+      </c>
+      <c r="N10" s="7">
+        <v>55985</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="M10" s="7">
-        <v>50</v>
-      </c>
-      <c r="N10" s="7">
-        <v>33288</v>
-      </c>
-      <c r="O10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" s="7">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="D11" s="7">
-        <v>15731</v>
+        <v>28209</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="H11" s="7">
+        <v>29</v>
+      </c>
+      <c r="I11" s="7">
+        <v>17403</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="H11" s="7">
-        <v>22</v>
-      </c>
-      <c r="I11" s="7">
-        <v>14218</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>72</v>
+      </c>
+      <c r="N11" s="7">
+        <v>45613</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="L11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="M11" s="7">
-        <v>43</v>
-      </c>
-      <c r="N11" s="7">
-        <v>29949</v>
-      </c>
-      <c r="O11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1326,144 +1326,144 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>46</v>
+        <v>91</v>
       </c>
       <c r="D12" s="7">
-        <v>32427</v>
+        <v>60845</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H12" s="7">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="I12" s="7">
-        <v>30809</v>
+        <v>40752</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M12" s="7">
-        <v>93</v>
+        <v>154</v>
       </c>
       <c r="N12" s="7">
-        <v>63237</v>
+        <v>101598</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="D13" s="7">
-        <v>3148</v>
+        <v>28919</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="H13" s="7">
+        <v>28</v>
+      </c>
+      <c r="I13" s="7">
+        <v>28554</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="K13" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="H13" s="7">
-        <v>11</v>
-      </c>
-      <c r="I13" s="7">
-        <v>5596</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="M13" s="7">
+        <v>64</v>
+      </c>
+      <c r="N13" s="7">
+        <v>57472</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="L13" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="M13" s="7">
-        <v>16</v>
-      </c>
-      <c r="N13" s="7">
-        <v>8744</v>
-      </c>
-      <c r="O13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C14" s="7">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="D14" s="7">
-        <v>1019</v>
+        <v>24575</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="H14" s="7">
+        <v>45</v>
+      </c>
+      <c r="I14" s="7">
+        <v>29341</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="H14" s="7">
-        <v>1</v>
-      </c>
-      <c r="I14" s="7">
-        <v>1021</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>82</v>
       </c>
       <c r="M14" s="7">
-        <v>3</v>
+        <v>83</v>
       </c>
       <c r="N14" s="7">
-        <v>2040</v>
+        <v>53916</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>83</v>
@@ -1481,49 +1481,49 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>7</v>
+        <v>74</v>
       </c>
       <c r="D15" s="7">
-        <v>4167</v>
+        <v>53494</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H15" s="7">
-        <v>12</v>
+        <v>73</v>
       </c>
       <c r="I15" s="7">
-        <v>6617</v>
+        <v>57895</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M15" s="7">
-        <v>19</v>
+        <v>147</v>
       </c>
       <c r="N15" s="7">
-        <v>10784</v>
+        <v>111388</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1534,10 +1534,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="D16" s="7">
-        <v>28919</v>
+        <v>16696</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>87</v>
@@ -1549,10 +1549,10 @@
         <v>89</v>
       </c>
       <c r="H16" s="7">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I16" s="7">
-        <v>28554</v>
+        <v>16591</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>90</v>
@@ -1564,10 +1564,10 @@
         <v>92</v>
       </c>
       <c r="M16" s="7">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="N16" s="7">
-        <v>57472</v>
+        <v>33288</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>93</v>
@@ -1582,13 +1582,13 @@
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C17" s="7">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="D17" s="7">
-        <v>24575</v>
+        <v>15731</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>96</v>
@@ -1600,10 +1600,10 @@
         <v>98</v>
       </c>
       <c r="H17" s="7">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="I17" s="7">
-        <v>29341</v>
+        <v>14218</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>99</v>
@@ -1615,10 +1615,10 @@
         <v>101</v>
       </c>
       <c r="M17" s="7">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="N17" s="7">
-        <v>53916</v>
+        <v>29949</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>102</v>
@@ -1636,49 +1636,49 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="D18" s="7">
-        <v>53494</v>
+        <v>32427</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H18" s="7">
-        <v>73</v>
+        <v>47</v>
       </c>
       <c r="I18" s="7">
-        <v>57895</v>
+        <v>30809</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M18" s="7">
-        <v>147</v>
+        <v>93</v>
       </c>
       <c r="N18" s="7">
-        <v>111388</v>
+        <v>63237</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1737,7 +1737,7 @@
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C20" s="7">
         <v>115</v>
@@ -1797,13 +1797,13 @@
         <v>173049</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H21" s="7">
         <v>229</v>
@@ -1812,13 +1812,13 @@
         <v>156098</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M21" s="7">
         <v>480</v>
@@ -1827,13 +1827,13 @@
         <v>329146</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP16A112_2023R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP16A112_2023R-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B93D5928-D51D-4E4C-A63F-D86CA7B0269B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{68FF892A-BD4E-492C-9DF5-C6F775CF36E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{6AFA83B5-6739-4EFE-8AAD-CAFD9586CFA9}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{5B84F396-9FCF-4297-8966-7CB0972F4BC7}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="124">
   <si>
     <t>Menores según si ha consumido medicinas para el dolor y/o para bajar la fiebre en 2023 (Tasa respuesta: 25,0%)</t>
   </si>
@@ -68,6 +68,33 @@
     <t>Menos de 2</t>
   </si>
   <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>24,46%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>67,79%</t>
+  </si>
+  <si>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>54,88%</t>
+  </si>
+  <si>
+    <t>18,92%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>45,71%</t>
+  </si>
+  <si>
     <t>No</t>
   </si>
   <si>
@@ -95,316 +122,292 @@
     <t>95,2%</t>
   </si>
   <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>24,46%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>67,79%</t>
-  </si>
-  <si>
-    <t>15,43%</t>
-  </si>
-  <si>
-    <t>54,88%</t>
-  </si>
-  <si>
-    <t>18,92%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>45,71%</t>
-  </si>
-  <si>
     <t>100%</t>
   </si>
   <si>
     <t>2/10</t>
   </si>
   <si>
+    <t>29,51%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>47,42%</t>
+  </si>
+  <si>
+    <t>47,46%</t>
+  </si>
+  <si>
+    <t>29,52%</t>
+  </si>
+  <si>
+    <t>63,98%</t>
+  </si>
+  <si>
+    <t>38,04%</t>
+  </si>
+  <si>
+    <t>26,3%</t>
+  </si>
+  <si>
+    <t>51,14%</t>
+  </si>
+  <si>
     <t>70,49%</t>
   </si>
   <si>
-    <t>52,39%</t>
-  </si>
-  <si>
-    <t>84,24%</t>
+    <t>52,58%</t>
+  </si>
+  <si>
+    <t>83,57%</t>
   </si>
   <si>
     <t>52,54%</t>
   </si>
   <si>
-    <t>34,3%</t>
-  </si>
-  <si>
-    <t>69,44%</t>
+    <t>36,02%</t>
+  </si>
+  <si>
+    <t>70,48%</t>
   </si>
   <si>
     <t>61,96%</t>
   </si>
   <si>
-    <t>49,58%</t>
-  </si>
-  <si>
-    <t>72,53%</t>
-  </si>
-  <si>
-    <t>29,51%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>47,61%</t>
-  </si>
-  <si>
-    <t>47,46%</t>
-  </si>
-  <si>
-    <t>30,56%</t>
-  </si>
-  <si>
-    <t>65,7%</t>
-  </si>
-  <si>
-    <t>38,04%</t>
-  </si>
-  <si>
-    <t>27,47%</t>
-  </si>
-  <si>
-    <t>50,42%</t>
+    <t>48,86%</t>
+  </si>
+  <si>
+    <t>73,7%</t>
   </si>
   <si>
     <t>10/50</t>
   </si>
   <si>
+    <t>46,36%</t>
+  </si>
+  <si>
+    <t>35,58%</t>
+  </si>
+  <si>
+    <t>57,93%</t>
+  </si>
+  <si>
+    <t>42,71%</t>
+  </si>
+  <si>
+    <t>30,41%</t>
+  </si>
+  <si>
+    <t>55,65%</t>
+  </si>
+  <si>
+    <t>44,9%</t>
+  </si>
+  <si>
+    <t>36,42%</t>
+  </si>
+  <si>
+    <t>53,28%</t>
+  </si>
+  <si>
     <t>53,64%</t>
   </si>
   <si>
-    <t>42,46%</t>
-  </si>
-  <si>
-    <t>65,2%</t>
+    <t>42,07%</t>
+  </si>
+  <si>
+    <t>64,42%</t>
   </si>
   <si>
     <t>57,29%</t>
   </si>
   <si>
-    <t>44,89%</t>
-  </si>
-  <si>
-    <t>70,89%</t>
+    <t>44,35%</t>
+  </si>
+  <si>
+    <t>69,59%</t>
   </si>
   <si>
     <t>55,1%</t>
   </si>
   <si>
-    <t>46,7%</t>
-  </si>
-  <si>
-    <t>64,68%</t>
-  </si>
-  <si>
-    <t>46,36%</t>
-  </si>
-  <si>
-    <t>34,8%</t>
-  </si>
-  <si>
-    <t>57,54%</t>
-  </si>
-  <si>
-    <t>42,71%</t>
-  </si>
-  <si>
-    <t>29,11%</t>
-  </si>
-  <si>
-    <t>55,11%</t>
-  </si>
-  <si>
-    <t>44,9%</t>
-  </si>
-  <si>
-    <t>35,32%</t>
-  </si>
-  <si>
-    <t>53,3%</t>
+    <t>46,72%</t>
+  </si>
+  <si>
+    <t>63,58%</t>
   </si>
   <si>
     <t>mas de 50</t>
   </si>
   <si>
+    <t>45,94%</t>
+  </si>
+  <si>
+    <t>31,77%</t>
+  </si>
+  <si>
+    <t>58,6%</t>
+  </si>
+  <si>
+    <t>50,68%</t>
+  </si>
+  <si>
+    <t>31,56%</t>
+  </si>
+  <si>
+    <t>65,14%</t>
+  </si>
+  <si>
+    <t>48,4%</t>
+  </si>
+  <si>
+    <t>37,61%</t>
+  </si>
+  <si>
+    <t>58,77%</t>
+  </si>
+  <si>
     <t>54,06%</t>
   </si>
   <si>
-    <t>42,16%</t>
-  </si>
-  <si>
-    <t>68,39%</t>
+    <t>41,4%</t>
+  </si>
+  <si>
+    <t>68,23%</t>
   </si>
   <si>
     <t>49,32%</t>
   </si>
   <si>
-    <t>34,77%</t>
-  </si>
-  <si>
-    <t>70,0%</t>
+    <t>34,86%</t>
+  </si>
+  <si>
+    <t>68,44%</t>
   </si>
   <si>
     <t>51,6%</t>
   </si>
   <si>
-    <t>41,47%</t>
-  </si>
-  <si>
-    <t>63,9%</t>
-  </si>
-  <si>
-    <t>45,94%</t>
-  </si>
-  <si>
-    <t>31,61%</t>
-  </si>
-  <si>
-    <t>57,84%</t>
-  </si>
-  <si>
-    <t>50,68%</t>
-  </si>
-  <si>
-    <t>30,0%</t>
-  </si>
-  <si>
-    <t>65,23%</t>
-  </si>
-  <si>
-    <t>48,4%</t>
-  </si>
-  <si>
-    <t>36,1%</t>
-  </si>
-  <si>
-    <t>58,53%</t>
+    <t>41,23%</t>
+  </si>
+  <si>
+    <t>62,39%</t>
   </si>
   <si>
     <t>Capitales</t>
   </si>
   <si>
+    <t>48,51%</t>
+  </si>
+  <si>
+    <t>33,69%</t>
+  </si>
+  <si>
+    <t>62,79%</t>
+  </si>
+  <si>
+    <t>46,15%</t>
+  </si>
+  <si>
+    <t>31,52%</t>
+  </si>
+  <si>
+    <t>60,19%</t>
+  </si>
+  <si>
+    <t>47,36%</t>
+  </si>
+  <si>
+    <t>37,91%</t>
+  </si>
+  <si>
+    <t>58,46%</t>
+  </si>
+  <si>
     <t>51,49%</t>
   </si>
   <si>
-    <t>36,46%</t>
-  </si>
-  <si>
-    <t>65,96%</t>
+    <t>37,21%</t>
+  </si>
+  <si>
+    <t>66,31%</t>
   </si>
   <si>
     <t>53,85%</t>
   </si>
   <si>
-    <t>39,49%</t>
-  </si>
-  <si>
-    <t>68,72%</t>
+    <t>39,81%</t>
+  </si>
+  <si>
+    <t>68,48%</t>
   </si>
   <si>
     <t>52,64%</t>
   </si>
   <si>
-    <t>42,1%</t>
-  </si>
-  <si>
-    <t>62,82%</t>
-  </si>
-  <si>
-    <t>48,51%</t>
-  </si>
-  <si>
-    <t>34,04%</t>
-  </si>
-  <si>
-    <t>63,54%</t>
-  </si>
-  <si>
-    <t>46,15%</t>
-  </si>
-  <si>
-    <t>31,28%</t>
-  </si>
-  <si>
-    <t>60,51%</t>
-  </si>
-  <si>
-    <t>47,36%</t>
-  </si>
-  <si>
-    <t>37,18%</t>
-  </si>
-  <si>
-    <t>57,9%</t>
+    <t>41,54%</t>
+  </si>
+  <si>
+    <t>62,09%</t>
+  </si>
+  <si>
+    <t>43,95%</t>
+  </si>
+  <si>
+    <t>36,93%</t>
+  </si>
+  <si>
+    <t>50,82%</t>
+  </si>
+  <si>
+    <t>45,8%</t>
+  </si>
+  <si>
+    <t>37,26%</t>
+  </si>
+  <si>
+    <t>53,24%</t>
+  </si>
+  <si>
+    <t>44,83%</t>
+  </si>
+  <si>
+    <t>39,46%</t>
+  </si>
+  <si>
+    <t>49,72%</t>
   </si>
   <si>
     <t>56,05%</t>
   </si>
   <si>
-    <t>49,29%</t>
-  </si>
-  <si>
-    <t>62,65%</t>
+    <t>49,18%</t>
+  </si>
+  <si>
+    <t>63,07%</t>
   </si>
   <si>
     <t>54,2%</t>
   </si>
   <si>
-    <t>46,82%</t>
-  </si>
-  <si>
-    <t>62,59%</t>
+    <t>46,76%</t>
+  </si>
+  <si>
+    <t>62,74%</t>
   </si>
   <si>
     <t>55,17%</t>
   </si>
   <si>
-    <t>50,91%</t>
-  </si>
-  <si>
-    <t>61,37%</t>
-  </si>
-  <si>
-    <t>43,95%</t>
-  </si>
-  <si>
-    <t>37,35%</t>
-  </si>
-  <si>
-    <t>50,71%</t>
-  </si>
-  <si>
-    <t>45,8%</t>
-  </si>
-  <si>
-    <t>37,41%</t>
-  </si>
-  <si>
-    <t>53,18%</t>
-  </si>
-  <si>
-    <t>44,83%</t>
-  </si>
-  <si>
-    <t>38,63%</t>
-  </si>
-  <si>
-    <t>49,09%</t>
+    <t>50,28%</t>
+  </si>
+  <si>
+    <t>60,54%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
   </si>
 </sst>
 </file>
@@ -415,7 +418,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -511,39 +514,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -595,7 +598,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -706,13 +709,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -721,6 +717,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -785,19 +788,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3D8B7E2-92C9-4D4E-B047-D7941BDEB74B}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51AC5D23-6502-4BF6-8BAF-8E638DAA42F8}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -914,10 +937,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D4" s="7">
-        <v>3148</v>
+        <v>1019</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -929,25 +952,25 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="I4" s="7">
-        <v>5596</v>
+        <v>1021</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="L4" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="M4" s="7">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="N4" s="7">
-        <v>8744</v>
+        <v>2040</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>16</v>
@@ -965,10 +988,10 @@
         <v>19</v>
       </c>
       <c r="C5" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D5" s="7">
-        <v>1019</v>
+        <v>3148</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>20</v>
@@ -980,25 +1003,25 @@
         <v>22</v>
       </c>
       <c r="H5" s="7">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="I5" s="7">
-        <v>1021</v>
+        <v>5596</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>23</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M5" s="7">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="N5" s="7">
-        <v>2040</v>
+        <v>8744</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>25</v>
@@ -1069,10 +1092,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="D7" s="7">
-        <v>15589</v>
+        <v>6527</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>30</v>
@@ -1087,7 +1110,7 @@
         <v>17</v>
       </c>
       <c r="I7" s="7">
-        <v>10520</v>
+        <v>9504</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>33</v>
@@ -1099,10 +1122,10 @@
         <v>35</v>
       </c>
       <c r="M7" s="7">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="N7" s="7">
-        <v>26110</v>
+        <v>16030</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>36</v>
@@ -1120,10 +1143,10 @@
         <v>19</v>
       </c>
       <c r="C8" s="7">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="D8" s="7">
-        <v>6527</v>
+        <v>15589</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>39</v>
@@ -1138,7 +1161,7 @@
         <v>17</v>
       </c>
       <c r="I8" s="7">
-        <v>9504</v>
+        <v>10520</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>42</v>
@@ -1150,10 +1173,10 @@
         <v>44</v>
       </c>
       <c r="M8" s="7">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="N8" s="7">
-        <v>16030</v>
+        <v>26110</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>45</v>
@@ -1224,10 +1247,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D10" s="7">
-        <v>32636</v>
+        <v>28209</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>49</v>
@@ -1239,10 +1262,10 @@
         <v>51</v>
       </c>
       <c r="H10" s="7">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="I10" s="7">
-        <v>23349</v>
+        <v>17403</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>52</v>
@@ -1254,10 +1277,10 @@
         <v>54</v>
       </c>
       <c r="M10" s="7">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="N10" s="7">
-        <v>55985</v>
+        <v>45613</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>55</v>
@@ -1275,10 +1298,10 @@
         <v>19</v>
       </c>
       <c r="C11" s="7">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D11" s="7">
-        <v>28209</v>
+        <v>32636</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>58</v>
@@ -1290,10 +1313,10 @@
         <v>60</v>
       </c>
       <c r="H11" s="7">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="I11" s="7">
-        <v>17403</v>
+        <v>23349</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>61</v>
@@ -1305,10 +1328,10 @@
         <v>63</v>
       </c>
       <c r="M11" s="7">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="N11" s="7">
-        <v>45613</v>
+        <v>55985</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>64</v>
@@ -1379,10 +1402,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D13" s="7">
-        <v>28919</v>
+        <v>24575</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>68</v>
@@ -1394,10 +1417,10 @@
         <v>70</v>
       </c>
       <c r="H13" s="7">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="I13" s="7">
-        <v>28554</v>
+        <v>29341</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>71</v>
@@ -1409,10 +1432,10 @@
         <v>73</v>
       </c>
       <c r="M13" s="7">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="N13" s="7">
-        <v>57472</v>
+        <v>53916</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>74</v>
@@ -1430,10 +1453,10 @@
         <v>19</v>
       </c>
       <c r="C14" s="7">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D14" s="7">
-        <v>24575</v>
+        <v>28919</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>77</v>
@@ -1445,10 +1468,10 @@
         <v>79</v>
       </c>
       <c r="H14" s="7">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="I14" s="7">
-        <v>29341</v>
+        <v>28554</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>80</v>
@@ -1460,10 +1483,10 @@
         <v>82</v>
       </c>
       <c r="M14" s="7">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="N14" s="7">
-        <v>53916</v>
+        <v>57472</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>83</v>
@@ -1534,10 +1557,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D16" s="7">
-        <v>16696</v>
+        <v>15731</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>87</v>
@@ -1549,10 +1572,10 @@
         <v>89</v>
       </c>
       <c r="H16" s="7">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I16" s="7">
-        <v>16591</v>
+        <v>14218</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>90</v>
@@ -1564,10 +1587,10 @@
         <v>92</v>
       </c>
       <c r="M16" s="7">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="N16" s="7">
-        <v>33288</v>
+        <v>29949</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>93</v>
@@ -1585,10 +1608,10 @@
         <v>19</v>
       </c>
       <c r="C17" s="7">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D17" s="7">
-        <v>15731</v>
+        <v>16696</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>96</v>
@@ -1600,10 +1623,10 @@
         <v>98</v>
       </c>
       <c r="H17" s="7">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I17" s="7">
-        <v>14218</v>
+        <v>16591</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>99</v>
@@ -1615,10 +1638,10 @@
         <v>101</v>
       </c>
       <c r="M17" s="7">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="N17" s="7">
-        <v>29949</v>
+        <v>33288</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>102</v>
@@ -1689,10 +1712,10 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>136</v>
+        <v>115</v>
       </c>
       <c r="D19" s="7">
-        <v>96988</v>
+        <v>76061</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>105</v>
@@ -1704,10 +1727,10 @@
         <v>107</v>
       </c>
       <c r="H19" s="7">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I19" s="7">
-        <v>84611</v>
+        <v>71487</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>108</v>
@@ -1719,10 +1742,10 @@
         <v>110</v>
       </c>
       <c r="M19" s="7">
-        <v>251</v>
+        <v>229</v>
       </c>
       <c r="N19" s="7">
-        <v>181599</v>
+        <v>147547</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>111</v>
@@ -1740,10 +1763,10 @@
         <v>19</v>
       </c>
       <c r="C20" s="7">
-        <v>115</v>
+        <v>136</v>
       </c>
       <c r="D20" s="7">
-        <v>76061</v>
+        <v>96988</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>114</v>
@@ -1755,10 +1778,10 @@
         <v>116</v>
       </c>
       <c r="H20" s="7">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="I20" s="7">
-        <v>71487</v>
+        <v>84611</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>117</v>
@@ -1770,10 +1793,10 @@
         <v>119</v>
       </c>
       <c r="M20" s="7">
-        <v>229</v>
+        <v>251</v>
       </c>
       <c r="N20" s="7">
-        <v>147547</v>
+        <v>181599</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>120</v>
@@ -1834,6 +1857,11 @@
       </c>
       <c r="Q21" s="7" t="s">
         <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>123</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP16A112_2023R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP16A112_2023R-Habitat-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{68FF892A-BD4E-492C-9DF5-C6F775CF36E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{20480A47-9B7D-4692-BB60-F033F0746F8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{5B84F396-9FCF-4297-8966-7CB0972F4BC7}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{DF5AE78C-363D-489B-9C11-ABE5F39EFF6C}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="122">
   <si>
     <t>Menores según si ha consumido medicinas para el dolor y/o para bajar la fiebre en 2023 (Tasa respuesta: 25,0%)</t>
   </si>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Sí</t>
@@ -77,223 +77,223 @@
     <t>0,0%</t>
   </si>
   <si>
+    <t>67,71%</t>
+  </si>
+  <si>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>58,62%</t>
+  </si>
+  <si>
+    <t>18,92%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>44,31%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>75,54%</t>
+  </si>
+  <si>
+    <t>32,29%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>84,57%</t>
+  </si>
+  <si>
+    <t>41,38%</t>
+  </si>
+  <si>
+    <t>81,08%</t>
+  </si>
+  <si>
+    <t>55,69%</t>
+  </si>
+  <si>
+    <t>95,18%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>29,51%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>46,75%</t>
+  </si>
+  <si>
+    <t>47,46%</t>
+  </si>
+  <si>
+    <t>30,73%</t>
+  </si>
+  <si>
+    <t>65,89%</t>
+  </si>
+  <si>
+    <t>38,04%</t>
+  </si>
+  <si>
+    <t>26,99%</t>
+  </si>
+  <si>
+    <t>51,33%</t>
+  </si>
+  <si>
+    <t>70,49%</t>
+  </si>
+  <si>
+    <t>53,25%</t>
+  </si>
+  <si>
+    <t>85,24%</t>
+  </si>
+  <si>
+    <t>52,54%</t>
+  </si>
+  <si>
+    <t>34,11%</t>
+  </si>
+  <si>
+    <t>69,27%</t>
+  </si>
+  <si>
+    <t>61,96%</t>
+  </si>
+  <si>
+    <t>48,67%</t>
+  </si>
+  <si>
+    <t>73,01%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>46,36%</t>
+  </si>
+  <si>
+    <t>34,95%</t>
+  </si>
+  <si>
+    <t>57,43%</t>
+  </si>
+  <si>
+    <t>42,71%</t>
+  </si>
+  <si>
+    <t>29,02%</t>
+  </si>
+  <si>
+    <t>54,63%</t>
+  </si>
+  <si>
+    <t>44,9%</t>
+  </si>
+  <si>
+    <t>36,27%</t>
+  </si>
+  <si>
+    <t>54,31%</t>
+  </si>
+  <si>
+    <t>53,64%</t>
+  </si>
+  <si>
+    <t>42,57%</t>
+  </si>
+  <si>
+    <t>65,05%</t>
+  </si>
+  <si>
+    <t>57,29%</t>
+  </si>
+  <si>
+    <t>45,37%</t>
+  </si>
+  <si>
+    <t>70,98%</t>
+  </si>
+  <si>
+    <t>55,1%</t>
+  </si>
+  <si>
+    <t>45,69%</t>
+  </si>
+  <si>
+    <t>63,73%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>45,94%</t>
+  </si>
+  <si>
+    <t>32,21%</t>
+  </si>
+  <si>
+    <t>58,29%</t>
+  </si>
+  <si>
+    <t>50,68%</t>
+  </si>
+  <si>
+    <t>27,33%</t>
+  </si>
+  <si>
+    <t>64,58%</t>
+  </si>
+  <si>
+    <t>48,4%</t>
+  </si>
+  <si>
+    <t>34,87%</t>
+  </si>
+  <si>
+    <t>57,13%</t>
+  </si>
+  <si>
+    <t>54,06%</t>
+  </si>
+  <si>
+    <t>41,71%</t>
+  </si>
+  <si>
     <t>67,79%</t>
   </si>
   <si>
-    <t>15,43%</t>
-  </si>
-  <si>
-    <t>54,88%</t>
-  </si>
-  <si>
-    <t>18,92%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>45,71%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>75,54%</t>
-  </si>
-  <si>
-    <t>32,21%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>84,57%</t>
-  </si>
-  <si>
-    <t>45,12%</t>
-  </si>
-  <si>
-    <t>81,08%</t>
-  </si>
-  <si>
-    <t>54,29%</t>
-  </si>
-  <si>
-    <t>95,2%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>29,51%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>47,42%</t>
-  </si>
-  <si>
-    <t>47,46%</t>
-  </si>
-  <si>
-    <t>29,52%</t>
-  </si>
-  <si>
-    <t>63,98%</t>
-  </si>
-  <si>
-    <t>38,04%</t>
-  </si>
-  <si>
-    <t>26,3%</t>
-  </si>
-  <si>
-    <t>51,14%</t>
-  </si>
-  <si>
-    <t>70,49%</t>
-  </si>
-  <si>
-    <t>52,58%</t>
-  </si>
-  <si>
-    <t>83,57%</t>
-  </si>
-  <si>
-    <t>52,54%</t>
-  </si>
-  <si>
-    <t>36,02%</t>
-  </si>
-  <si>
-    <t>70,48%</t>
-  </si>
-  <si>
-    <t>61,96%</t>
-  </si>
-  <si>
-    <t>48,86%</t>
-  </si>
-  <si>
-    <t>73,7%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>46,36%</t>
-  </si>
-  <si>
-    <t>35,58%</t>
-  </si>
-  <si>
-    <t>57,93%</t>
-  </si>
-  <si>
-    <t>42,71%</t>
-  </si>
-  <si>
-    <t>30,41%</t>
-  </si>
-  <si>
-    <t>55,65%</t>
-  </si>
-  <si>
-    <t>44,9%</t>
-  </si>
-  <si>
-    <t>36,42%</t>
-  </si>
-  <si>
-    <t>53,28%</t>
-  </si>
-  <si>
-    <t>53,64%</t>
-  </si>
-  <si>
-    <t>42,07%</t>
-  </si>
-  <si>
-    <t>64,42%</t>
-  </si>
-  <si>
-    <t>57,29%</t>
-  </si>
-  <si>
-    <t>44,35%</t>
-  </si>
-  <si>
-    <t>69,59%</t>
-  </si>
-  <si>
-    <t>55,1%</t>
-  </si>
-  <si>
-    <t>46,72%</t>
-  </si>
-  <si>
-    <t>63,58%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>45,94%</t>
-  </si>
-  <si>
-    <t>31,77%</t>
-  </si>
-  <si>
-    <t>58,6%</t>
-  </si>
-  <si>
-    <t>50,68%</t>
-  </si>
-  <si>
-    <t>31,56%</t>
-  </si>
-  <si>
-    <t>65,14%</t>
-  </si>
-  <si>
-    <t>48,4%</t>
-  </si>
-  <si>
-    <t>37,61%</t>
-  </si>
-  <si>
-    <t>58,77%</t>
-  </si>
-  <si>
-    <t>54,06%</t>
-  </si>
-  <si>
-    <t>41,4%</t>
-  </si>
-  <si>
-    <t>68,23%</t>
-  </si>
-  <si>
     <t>49,32%</t>
   </si>
   <si>
-    <t>34,86%</t>
-  </si>
-  <si>
-    <t>68,44%</t>
+    <t>35,42%</t>
+  </si>
+  <si>
+    <t>72,67%</t>
   </si>
   <si>
     <t>51,6%</t>
   </si>
   <si>
-    <t>41,23%</t>
-  </si>
-  <si>
-    <t>62,39%</t>
+    <t>42,87%</t>
+  </si>
+  <si>
+    <t>65,13%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -302,109 +302,103 @@
     <t>48,51%</t>
   </si>
   <si>
-    <t>33,69%</t>
-  </si>
-  <si>
-    <t>62,79%</t>
+    <t>34,56%</t>
+  </si>
+  <si>
+    <t>62,99%</t>
   </si>
   <si>
     <t>46,15%</t>
   </si>
   <si>
-    <t>31,52%</t>
-  </si>
-  <si>
-    <t>60,19%</t>
+    <t>32,41%</t>
+  </si>
+  <si>
+    <t>59,7%</t>
   </si>
   <si>
     <t>47,36%</t>
   </si>
   <si>
-    <t>37,91%</t>
-  </si>
-  <si>
-    <t>58,46%</t>
+    <t>36,83%</t>
+  </si>
+  <si>
+    <t>57,92%</t>
   </si>
   <si>
     <t>51,49%</t>
   </si>
   <si>
-    <t>37,21%</t>
-  </si>
-  <si>
-    <t>66,31%</t>
+    <t>37,01%</t>
+  </si>
+  <si>
+    <t>65,44%</t>
   </si>
   <si>
     <t>53,85%</t>
   </si>
   <si>
-    <t>39,81%</t>
-  </si>
-  <si>
-    <t>68,48%</t>
+    <t>40,3%</t>
+  </si>
+  <si>
+    <t>67,59%</t>
   </si>
   <si>
     <t>52,64%</t>
   </si>
   <si>
-    <t>41,54%</t>
-  </si>
-  <si>
-    <t>62,09%</t>
+    <t>42,08%</t>
+  </si>
+  <si>
+    <t>63,17%</t>
   </si>
   <si>
     <t>43,95%</t>
   </si>
   <si>
-    <t>36,93%</t>
-  </si>
-  <si>
-    <t>50,82%</t>
+    <t>50,02%</t>
   </si>
   <si>
     <t>45,8%</t>
   </si>
   <si>
-    <t>37,26%</t>
-  </si>
-  <si>
-    <t>53,24%</t>
+    <t>37,47%</t>
+  </si>
+  <si>
+    <t>53,55%</t>
   </si>
   <si>
     <t>44,83%</t>
   </si>
   <si>
-    <t>39,46%</t>
-  </si>
-  <si>
-    <t>49,72%</t>
+    <t>39,76%</t>
+  </si>
+  <si>
+    <t>49,83%</t>
   </si>
   <si>
     <t>56,05%</t>
   </si>
   <si>
-    <t>49,18%</t>
-  </si>
-  <si>
-    <t>63,07%</t>
+    <t>49,98%</t>
   </si>
   <si>
     <t>54,2%</t>
   </si>
   <si>
-    <t>46,76%</t>
-  </si>
-  <si>
-    <t>62,74%</t>
+    <t>46,45%</t>
+  </si>
+  <si>
+    <t>62,53%</t>
   </si>
   <si>
     <t>55,17%</t>
   </si>
   <si>
-    <t>50,28%</t>
-  </si>
-  <si>
-    <t>60,54%</t>
+    <t>50,17%</t>
+  </si>
+  <si>
+    <t>60,24%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -819,7 +813,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51AC5D23-6502-4BF6-8BAF-8E638DAA42F8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2910A27D-F28D-481A-BCF8-440E4A582AF5}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1265,7 +1259,7 @@
         <v>29</v>
       </c>
       <c r="I10" s="7">
-        <v>17403</v>
+        <v>17404</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>52</v>
@@ -1367,7 +1361,7 @@
         <v>63</v>
       </c>
       <c r="I12" s="7">
-        <v>40752</v>
+        <v>40753</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>28</v>
@@ -1721,10 +1715,10 @@
         <v>105</v>
       </c>
       <c r="F19" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="H19" s="7">
         <v>114</v>
@@ -1733,13 +1727,13 @@
         <v>71487</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="M19" s="7">
         <v>229</v>
@@ -1748,13 +1742,13 @@
         <v>147547</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1769,13 +1763,13 @@
         <v>96988</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="F20" s="7" t="s">
-        <v>115</v>
-      </c>
       <c r="G20" s="7" t="s">
-        <v>116</v>
+        <v>89</v>
       </c>
       <c r="H20" s="7">
         <v>115</v>
@@ -1784,13 +1778,13 @@
         <v>84611</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="M20" s="7">
         <v>251</v>
@@ -1799,13 +1793,13 @@
         <v>181599</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1861,7 +1855,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP16A112_2023R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP16A112_2023R-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{20480A47-9B7D-4692-BB60-F033F0746F8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8C39E88C-85B0-4651-B0EF-77D8AA0C816B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{DF5AE78C-363D-489B-9C11-ABE5F39EFF6C}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{EECF49B8-E389-4E28-BDC9-5C24D2691C18}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,15 +36,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="107">
   <si>
     <t>Menores según si ha consumido medicinas para el dolor y/o para bajar la fiebre en 2023 (Tasa respuesta: 25,0%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -65,340 +65,295 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>24,46%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>67,71%</t>
-  </si>
-  <si>
-    <t>15,43%</t>
-  </si>
-  <si>
-    <t>58,62%</t>
-  </si>
-  <si>
-    <t>18,92%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>44,31%</t>
+    <t>38,8%</t>
+  </si>
+  <si>
+    <t>24,98%</t>
+  </si>
+  <si>
+    <t>54,23%</t>
+  </si>
+  <si>
+    <t>27,58%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>44,55%</t>
+  </si>
+  <si>
+    <t>33,06%</t>
+  </si>
+  <si>
+    <t>23,64%</t>
+  </si>
+  <si>
+    <t>44,72%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>75,54%</t>
-  </si>
-  <si>
-    <t>32,29%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>84,57%</t>
-  </si>
-  <si>
-    <t>41,38%</t>
-  </si>
-  <si>
-    <t>81,08%</t>
-  </si>
-  <si>
-    <t>55,69%</t>
-  </si>
-  <si>
-    <t>95,18%</t>
+    <t>61,2%</t>
+  </si>
+  <si>
+    <t>45,77%</t>
+  </si>
+  <si>
+    <t>75,02%</t>
+  </si>
+  <si>
+    <t>72,42%</t>
+  </si>
+  <si>
+    <t>55,45%</t>
+  </si>
+  <si>
+    <t>85,81%</t>
+  </si>
+  <si>
+    <t>66,94%</t>
+  </si>
+  <si>
+    <t>55,28%</t>
+  </si>
+  <si>
+    <t>76,36%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>29,51%</t>
-  </si>
-  <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>46,75%</t>
-  </si>
-  <si>
-    <t>47,46%</t>
-  </si>
-  <si>
-    <t>30,73%</t>
-  </si>
-  <si>
-    <t>65,89%</t>
-  </si>
-  <si>
-    <t>38,04%</t>
-  </si>
-  <si>
-    <t>26,99%</t>
-  </si>
-  <si>
-    <t>51,33%</t>
-  </si>
-  <si>
-    <t>70,49%</t>
-  </si>
-  <si>
-    <t>53,25%</t>
-  </si>
-  <si>
-    <t>85,24%</t>
-  </si>
-  <si>
-    <t>52,54%</t>
-  </si>
-  <si>
-    <t>34,11%</t>
-  </si>
-  <si>
-    <t>69,27%</t>
-  </si>
-  <si>
-    <t>61,96%</t>
-  </si>
-  <si>
-    <t>48,67%</t>
-  </si>
-  <si>
-    <t>73,01%</t>
-  </si>
-  <si>
     <t>10-50.000 hab</t>
   </si>
   <si>
-    <t>46,36%</t>
-  </si>
-  <si>
-    <t>34,95%</t>
-  </si>
-  <si>
-    <t>57,43%</t>
-  </si>
-  <si>
-    <t>42,71%</t>
-  </si>
-  <si>
-    <t>29,02%</t>
-  </si>
-  <si>
-    <t>54,63%</t>
-  </si>
-  <si>
-    <t>44,9%</t>
-  </si>
-  <si>
-    <t>36,27%</t>
-  </si>
-  <si>
-    <t>54,31%</t>
-  </si>
-  <si>
-    <t>53,64%</t>
-  </si>
-  <si>
-    <t>42,57%</t>
-  </si>
-  <si>
-    <t>65,05%</t>
-  </si>
-  <si>
-    <t>57,29%</t>
-  </si>
-  <si>
-    <t>45,37%</t>
-  </si>
-  <si>
-    <t>70,98%</t>
-  </si>
-  <si>
-    <t>55,1%</t>
-  </si>
-  <si>
-    <t>45,69%</t>
-  </si>
-  <si>
-    <t>63,73%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>45,94%</t>
+    <t>40,3%</t>
+  </si>
+  <si>
+    <t>23,3%</t>
+  </si>
+  <si>
+    <t>53,55%</t>
+  </si>
+  <si>
+    <t>46,23%</t>
+  </si>
+  <si>
+    <t>34,38%</t>
+  </si>
+  <si>
+    <t>57,37%</t>
+  </si>
+  <si>
+    <t>43,79%</t>
+  </si>
+  <si>
+    <t>33,52%</t>
+  </si>
+  <si>
+    <t>52,66%</t>
+  </si>
+  <si>
+    <t>59,7%</t>
+  </si>
+  <si>
+    <t>46,45%</t>
+  </si>
+  <si>
+    <t>76,7%</t>
+  </si>
+  <si>
+    <t>53,77%</t>
+  </si>
+  <si>
+    <t>42,63%</t>
+  </si>
+  <si>
+    <t>65,62%</t>
+  </si>
+  <si>
+    <t>56,21%</t>
+  </si>
+  <si>
+    <t>47,34%</t>
+  </si>
+  <si>
+    <t>66,48%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>37,5%</t>
+  </si>
+  <si>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>62,06%</t>
+  </si>
+  <si>
+    <t>46,84%</t>
   </si>
   <si>
     <t>32,21%</t>
   </si>
   <si>
-    <t>58,29%</t>
-  </si>
-  <si>
-    <t>50,68%</t>
-  </si>
-  <si>
-    <t>27,33%</t>
-  </si>
-  <si>
-    <t>64,58%</t>
-  </si>
-  <si>
-    <t>48,4%</t>
-  </si>
-  <si>
-    <t>34,87%</t>
-  </si>
-  <si>
-    <t>57,13%</t>
-  </si>
-  <si>
-    <t>54,06%</t>
-  </si>
-  <si>
-    <t>41,71%</t>
+    <t>58,68%</t>
+  </si>
+  <si>
+    <t>41,46%</t>
+  </si>
+  <si>
+    <t>22,59%</t>
+  </si>
+  <si>
+    <t>55,17%</t>
+  </si>
+  <si>
+    <t>62,5%</t>
+  </si>
+  <si>
+    <t>37,94%</t>
+  </si>
+  <si>
+    <t>85,5%</t>
+  </si>
+  <si>
+    <t>53,16%</t>
+  </si>
+  <si>
+    <t>41,32%</t>
   </si>
   <si>
     <t>67,79%</t>
   </si>
   <si>
-    <t>49,32%</t>
-  </si>
-  <si>
-    <t>35,42%</t>
-  </si>
-  <si>
-    <t>72,67%</t>
-  </si>
-  <si>
-    <t>51,6%</t>
-  </si>
-  <si>
-    <t>42,87%</t>
-  </si>
-  <si>
-    <t>65,13%</t>
+    <t>58,54%</t>
+  </si>
+  <si>
+    <t>44,83%</t>
+  </si>
+  <si>
+    <t>77,41%</t>
   </si>
   <si>
     <t>Capitales</t>
   </si>
   <si>
-    <t>48,51%</t>
-  </si>
-  <si>
-    <t>34,56%</t>
-  </si>
-  <si>
-    <t>62,99%</t>
-  </si>
-  <si>
-    <t>46,15%</t>
-  </si>
-  <si>
-    <t>32,41%</t>
-  </si>
-  <si>
-    <t>59,7%</t>
-  </si>
-  <si>
-    <t>47,36%</t>
-  </si>
-  <si>
-    <t>36,83%</t>
-  </si>
-  <si>
-    <t>57,92%</t>
-  </si>
-  <si>
-    <t>51,49%</t>
-  </si>
-  <si>
-    <t>37,01%</t>
-  </si>
-  <si>
-    <t>65,44%</t>
-  </si>
-  <si>
-    <t>53,85%</t>
-  </si>
-  <si>
-    <t>40,3%</t>
-  </si>
-  <si>
-    <t>67,59%</t>
-  </si>
-  <si>
-    <t>52,64%</t>
-  </si>
-  <si>
-    <t>42,08%</t>
-  </si>
-  <si>
-    <t>63,17%</t>
-  </si>
-  <si>
-    <t>43,95%</t>
-  </si>
-  <si>
-    <t>50,02%</t>
-  </si>
-  <si>
-    <t>45,8%</t>
-  </si>
-  <si>
-    <t>37,47%</t>
-  </si>
-  <si>
-    <t>53,55%</t>
-  </si>
-  <si>
-    <t>44,83%</t>
-  </si>
-  <si>
-    <t>39,76%</t>
-  </si>
-  <si>
-    <t>49,83%</t>
-  </si>
-  <si>
-    <t>56,05%</t>
-  </si>
-  <si>
-    <t>49,98%</t>
-  </si>
-  <si>
-    <t>54,2%</t>
-  </si>
-  <si>
-    <t>46,45%</t>
-  </si>
-  <si>
-    <t>62,53%</t>
-  </si>
-  <si>
-    <t>55,17%</t>
-  </si>
-  <si>
-    <t>50,17%</t>
-  </si>
-  <si>
-    <t>60,24%</t>
+    <t>46,2%</t>
+  </si>
+  <si>
+    <t>31,5%</t>
+  </si>
+  <si>
+    <t>61,13%</t>
+  </si>
+  <si>
+    <t>47,82%</t>
+  </si>
+  <si>
+    <t>33,53%</t>
+  </si>
+  <si>
+    <t>62,87%</t>
+  </si>
+  <si>
+    <t>47,05%</t>
+  </si>
+  <si>
+    <t>36,68%</t>
+  </si>
+  <si>
+    <t>57,45%</t>
+  </si>
+  <si>
+    <t>53,8%</t>
+  </si>
+  <si>
+    <t>38,87%</t>
+  </si>
+  <si>
+    <t>68,5%</t>
+  </si>
+  <si>
+    <t>52,18%</t>
+  </si>
+  <si>
+    <t>37,13%</t>
+  </si>
+  <si>
+    <t>66,47%</t>
+  </si>
+  <si>
+    <t>52,95%</t>
+  </si>
+  <si>
+    <t>42,55%</t>
+  </si>
+  <si>
+    <t>63,32%</t>
+  </si>
+  <si>
+    <t>39,88%</t>
+  </si>
+  <si>
+    <t>23,77%</t>
+  </si>
+  <si>
+    <t>49,62%</t>
+  </si>
+  <si>
+    <t>43,84%</t>
+  </si>
+  <si>
+    <t>37,26%</t>
+  </si>
+  <si>
+    <t>50,85%</t>
+  </si>
+  <si>
+    <t>41,88%</t>
+  </si>
+  <si>
+    <t>31,87%</t>
+  </si>
+  <si>
+    <t>46,96%</t>
+  </si>
+  <si>
+    <t>60,12%</t>
+  </si>
+  <si>
+    <t>50,38%</t>
+  </si>
+  <si>
+    <t>76,23%</t>
+  </si>
+  <si>
+    <t>56,16%</t>
+  </si>
+  <si>
+    <t>49,15%</t>
+  </si>
+  <si>
+    <t>62,74%</t>
+  </si>
+  <si>
+    <t>58,12%</t>
+  </si>
+  <si>
+    <t>53,04%</t>
+  </si>
+  <si>
+    <t>68,13%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -813,8 +768,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2910A27D-F28D-481A-BCF8-440E4A582AF5}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CA081AB-DBBB-4FD9-ABB7-2D8E94558B23}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -931,10 +886,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="D4" s="7">
-        <v>1019</v>
+        <v>10452</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -946,85 +901,85 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="I4" s="7">
-        <v>1021</v>
+        <v>7768</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="N4" s="7">
-        <v>2040</v>
+        <v>18219</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="D5" s="7">
-        <v>3148</v>
+        <v>16486</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="I5" s="7">
-        <v>5596</v>
+        <v>20399</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="N5" s="7">
-        <v>8744</v>
+        <v>36886</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1033,153 +988,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>7</v>
+        <v>46</v>
       </c>
       <c r="D6" s="7">
-        <v>4167</v>
+        <v>26938</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="I6" s="7">
-        <v>6617</v>
+        <v>28167</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>19</v>
+        <v>86</v>
       </c>
       <c r="N6" s="7">
-        <v>10784</v>
+        <v>55105</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="D7" s="7">
-        <v>6527</v>
+        <v>18046</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="I7" s="7">
-        <v>9504</v>
+        <v>29501</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>28</v>
+        <v>72</v>
       </c>
       <c r="N7" s="7">
-        <v>16030</v>
+        <v>47547</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="D8" s="7">
-        <v>15589</v>
+        <v>26736</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="I8" s="7">
-        <v>10520</v>
+        <v>34308</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>39</v>
+        <v>82</v>
       </c>
       <c r="N8" s="7">
-        <v>26110</v>
+        <v>61044</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1188,153 +1143,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="D9" s="7">
-        <v>22116</v>
+        <v>44782</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>34</v>
+        <v>91</v>
       </c>
       <c r="I9" s="7">
-        <v>20024</v>
+        <v>63809</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>67</v>
+        <v>154</v>
       </c>
       <c r="N9" s="7">
-        <v>42140</v>
+        <v>108591</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D10" s="7">
-        <v>28209</v>
+        <v>28899</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="I10" s="7">
-        <v>17404</v>
+        <v>26660</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="N10" s="7">
-        <v>45613</v>
+        <v>55559</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="D11" s="7">
-        <v>32636</v>
+        <v>48172</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I11" s="7">
-        <v>23349</v>
+        <v>30263</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="N11" s="7">
-        <v>55985</v>
+        <v>78435</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1343,153 +1298,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="D12" s="7">
-        <v>60845</v>
+        <v>77071</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="I12" s="7">
-        <v>40753</v>
+        <v>56923</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="N12" s="7">
-        <v>101598</v>
+        <v>133994</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="D13" s="7">
-        <v>24575</v>
+        <v>14120</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="I13" s="7">
-        <v>29341</v>
+        <v>16167</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="N13" s="7">
-        <v>53916</v>
+        <v>30287</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="D14" s="7">
-        <v>28919</v>
+        <v>16441</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I14" s="7">
-        <v>28554</v>
+        <v>17642</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="N14" s="7">
-        <v>57472</v>
+        <v>34083</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1498,153 +1453,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>74</v>
+        <v>47</v>
       </c>
       <c r="D15" s="7">
-        <v>53494</v>
+        <v>30561</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="I15" s="7">
-        <v>57895</v>
+        <v>33809</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>147</v>
+        <v>93</v>
       </c>
       <c r="N15" s="7">
-        <v>111388</v>
+        <v>64370</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>21</v>
+        <v>114</v>
       </c>
       <c r="D16" s="7">
-        <v>15731</v>
+        <v>71517</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H16" s="7">
-        <v>22</v>
+        <v>115</v>
       </c>
       <c r="I16" s="7">
-        <v>14218</v>
+        <v>80096</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M16" s="7">
-        <v>43</v>
+        <v>229</v>
       </c>
       <c r="N16" s="7">
-        <v>29949</v>
+        <v>151613</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>25</v>
+        <v>115</v>
       </c>
       <c r="D17" s="7">
-        <v>16696</v>
+        <v>107835</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H17" s="7">
-        <v>25</v>
+        <v>136</v>
       </c>
       <c r="I17" s="7">
-        <v>16591</v>
+        <v>102613</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M17" s="7">
-        <v>50</v>
+        <v>251</v>
       </c>
       <c r="N17" s="7">
-        <v>33288</v>
+        <v>210448</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1653,217 +1608,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>46</v>
+        <v>229</v>
       </c>
       <c r="D18" s="7">
-        <v>32427</v>
+        <v>179352</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>47</v>
+        <v>251</v>
       </c>
       <c r="I18" s="7">
-        <v>30809</v>
+        <v>182709</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>93</v>
+        <v>480</v>
       </c>
       <c r="N18" s="7">
-        <v>63237</v>
+        <v>362061</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>115</v>
-      </c>
-      <c r="D19" s="7">
-        <v>76061</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="G19" s="7" t="s">
+      <c r="A19" t="s">
         <v>106</v>
       </c>
-      <c r="H19" s="7">
-        <v>114</v>
-      </c>
-      <c r="I19" s="7">
-        <v>71487</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="M19" s="7">
-        <v>229</v>
-      </c>
-      <c r="N19" s="7">
-        <v>147547</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20" s="7">
-        <v>136</v>
-      </c>
-      <c r="D20" s="7">
-        <v>96988</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="H20" s="7">
-        <v>115</v>
-      </c>
-      <c r="I20" s="7">
-        <v>84611</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="M20" s="7">
-        <v>251</v>
-      </c>
-      <c r="N20" s="7">
-        <v>181599</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>251</v>
-      </c>
-      <c r="D21" s="7">
-        <v>173049</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H21" s="7">
-        <v>229</v>
-      </c>
-      <c r="I21" s="7">
-        <v>156098</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="M21" s="7">
-        <v>480</v>
-      </c>
-      <c r="N21" s="7">
-        <v>329146</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>121</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
